--- a/7martProject/target/classes/Resources/TestData.xlsx
+++ b/7martProject/target/classes/Resources/TestData.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\7martProject\src\main\java\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B64E9-0843-4A2C-8B0A-A8F79173654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ManagePage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageProduct" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageDeliveryBoy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +27,87 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>url after login</t>
+  </si>
+  <si>
+    <t>New Button</t>
+  </si>
+  <si>
+    <t>BackgroundColor</t>
+  </si>
+  <si>
+    <t>rgba(220, 53, 69, 1)</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>http://groceryapp.uniqassosiates.com/admin</t>
+  </si>
+  <si>
+    <t>Login | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>Dashboard | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>TitleofDashboard1</t>
+  </si>
+  <si>
+    <t>TitleofDashboard2</t>
+  </si>
+  <si>
+    <t>background color of unlimited button</t>
+  </si>
+  <si>
+    <t>rgb(220, 53, 69)</t>
+  </si>
+  <si>
+    <t>background color of limited button</t>
+  </si>
+  <si>
+    <t>rgb(40, 167, 69)</t>
+  </si>
+  <si>
+    <t>rgba(40, 167, 69, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title </t>
+  </si>
+  <si>
+    <t>List Delivery Boy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2937"/>
+      <name val="Work Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +130,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +418,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F4708E44-2210-494F-AA71-4517E956562F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E1C4A-E0AE-464E-A4B6-75C5EDD09958}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546B845-CC9C-4388-95BA-5B1F0426FD12}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945CB13-4E3C-40B3-A0FB-314DBA486B5B}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7martProject/target/classes/Resources/TestData.xlsx
+++ b/7martProject/target/classes/Resources/TestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\7martProject\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B64E9-0843-4A2C-8B0A-A8F79173654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C7362-D94C-474A-AA03-A1ABC50C9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManagePage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageProduct" sheetId="3" r:id="rId3"/>
     <sheet name="ManageDeliveryBoy" sheetId="4" r:id="rId4"/>
+    <sheet name="SelectMenu" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>url after login</t>
   </si>
@@ -85,6 +86,23 @@
   </si>
   <si>
     <t>List Delivery Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert message </t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Invalid Username/Password</t>
+  </si>
+  <si>
+    <t>List of Page Texts to Navigate</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
+  </si>
+  <si>
+    <t>Manage Delivery Boy</t>
   </si>
 </sst>
 </file>
@@ -134,10 +152,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,6 +492,14 @@
       </c>
       <c r="B11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945CB13-4E3C-40B3-A0FB-314DBA486B5B}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -584,4 +613,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A532EDF-B178-4A78-BEF2-140498E0CB5B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/7martProject/target/classes/Resources/TestData.xlsx
+++ b/7martProject/target/classes/Resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\7martProject\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C7362-D94C-474A-AA03-A1ABC50C9B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63DEBD-E8FA-43B3-94F9-E934B740043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,22 @@
     <sheet name="ManageProduct" sheetId="3" r:id="rId3"/>
     <sheet name="ManageDeliveryBoy" sheetId="4" r:id="rId4"/>
     <sheet name="SelectMenu" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="17" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="18" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="19" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="20" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="21" r:id="rId14"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId15"/>
+    <sheet name="PushNotification" sheetId="7" r:id="rId16"/>
+    <sheet name="ManagePaymentMethods" sheetId="8" r:id="rId17"/>
+    <sheet name="tableheader" sheetId="9" r:id="rId18"/>
+    <sheet name="ManageOffercode" sheetId="11" r:id="rId19"/>
+    <sheet name="Adminusers" sheetId="10" r:id="rId20"/>
+    <sheet name="ExpenseCategory" sheetId="12" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>url after login</t>
   </si>
@@ -103,6 +119,129 @@
   </si>
   <si>
     <t>Manage Delivery Boy</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Manage Pages</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-page</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http://groceryapp.uniqassosiates.com/admin/list-product</t>
+  </si>
+  <si>
+    <t>Push Notifications</t>
+  </si>
+  <si>
+    <t>Alert message</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Message send successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchText </t>
+  </si>
+  <si>
+    <t>Passionfruit</t>
+  </si>
+  <si>
+    <t>Manage Offercode</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-admin</t>
+  </si>
+  <si>
+    <t>Manage Slider</t>
+  </si>
+  <si>
+    <t>Manage Payment Methods</t>
+  </si>
+  <si>
+    <t>pay limit</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>anju</t>
+  </si>
+  <si>
+    <t>archa</t>
+  </si>
+  <si>
+    <t>Table Headers</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Pay Limit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Admin Users</t>
+  </si>
+  <si>
+    <t>expected url</t>
+  </si>
+  <si>
+    <t>Dropdown Menu Options</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Delivery Boy</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+User Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Alert when delete</t>
+  </si>
+  <si>
+    <t>http://groceryapp.uniqassosiates.com/admin/list-offercode</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Offer Created Successfully</t>
+  </si>
+  <si>
+    <t>Expense Category</t>
+  </si>
+  <si>
+    <t>no of rows</t>
+  </si>
+  <si>
+    <t>Manage Expense</t>
   </si>
 </sst>
 </file>
@@ -152,12 +291,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -443,7 +585,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,12 +652,254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719949D1-A2AC-48BE-B889-5E7E4CC0DB70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3DD4C9-3CB6-4A67-AF3C-B6877FD8847B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6038E6-62BD-4B3E-9391-ADCFB9624427}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FADAB6-FE55-4FDF-9DFA-D95F8527A4B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE95B8F-113E-4F5D-956B-21F853AB7158}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9875BD-2E61-4A41-A93F-ECA6271E897B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{FC4959E1-5B9D-4FD5-9E4D-2BCCA18BF8F9}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{11D0D3BF-CF59-470C-8DB8-7FA6E87EADC1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7A6850-9A60-468A-8E7F-8EA5AA73F828}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EDC402-2207-4D25-940A-1FE83EF89EB0}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3A7227-B24A-41B0-AE8A-3FC6F3F648E5}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068057FC-71D1-49D8-BD76-B77C3B5524F1}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E1C4A-E0AE-464E-A4B6-75C5EDD09958}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,27 +921,124 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3267048-9A14-41EB-8D08-27A45D564C35}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E05A38F-6D40-47D5-BB6C-997DE95A8DEC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546B845-CC9C-4388-95BA-5B1F0426FD12}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -565,12 +1046,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -578,9 +1059,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -617,34 +1106,111 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A532EDF-B178-4A78-BEF2-140498E0CB5B}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F983069D-9AF7-4F2C-978C-0C4138A475A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577C5EC-5AA8-41B8-8B7F-BCB5AFAD1DA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A842C7-7B9B-49A7-804B-F4FD31F30E0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C62F5-E237-416F-B1BA-93512402F284}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7martProject/target/classes/Resources/TestData.xlsx
+++ b/7martProject/target/classes/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\7martProject\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63DEBD-E8FA-43B3-94F9-E934B740043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59CDBC4-854D-442A-B55A-41481EA57FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,20 @@
     <sheet name="ManageProduct" sheetId="3" r:id="rId3"/>
     <sheet name="ManageDeliveryBoy" sheetId="4" r:id="rId4"/>
     <sheet name="SelectMenu" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="15" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="16" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="17" r:id="rId10"/>
-    <sheet name="Sheet8" sheetId="18" r:id="rId11"/>
-    <sheet name="Sheet9" sheetId="19" r:id="rId12"/>
-    <sheet name="Sheet10" sheetId="20" r:id="rId13"/>
-    <sheet name="Sheet11" sheetId="21" r:id="rId14"/>
-    <sheet name="Dashboard" sheetId="6" r:id="rId15"/>
-    <sheet name="PushNotification" sheetId="7" r:id="rId16"/>
-    <sheet name="ManagePaymentMethods" sheetId="8" r:id="rId17"/>
-    <sheet name="tableheader" sheetId="9" r:id="rId18"/>
-    <sheet name="ManageOffercode" sheetId="11" r:id="rId19"/>
-    <sheet name="Adminusers" sheetId="10" r:id="rId20"/>
-    <sheet name="ExpenseCategory" sheetId="12" r:id="rId21"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId6"/>
+    <sheet name="PushNotification" sheetId="7" r:id="rId7"/>
+    <sheet name="ManagePaymentMethods" sheetId="8" r:id="rId8"/>
+    <sheet name="tableheader" sheetId="9" r:id="rId9"/>
+    <sheet name="ManageOffercode" sheetId="11" r:id="rId10"/>
+    <sheet name="Adminusers" sheetId="10" r:id="rId11"/>
+    <sheet name="ExpenseCategory" sheetId="12" r:id="rId12"/>
+    <sheet name="Manageuser" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet8" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet9" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet10" sheetId="20" r:id="rId16"/>
+    <sheet name="Sheet11" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId18"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>url after login</t>
   </si>
@@ -130,9 +128,6 @@
     <t>href</t>
   </si>
   <si>
-    <t>https://groceryapp.uniqassosiates.com/admin/list-page</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -242,6 +237,69 @@
   </si>
   <si>
     <t>Manage Expense</t>
+  </si>
+  <si>
+    <t>width of action</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>222.725px</t>
+  </si>
+  <si>
+    <t>Manage Users</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>anucs</t>
+  </si>
+  <si>
+    <t>alert when adding new user</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+User Created Successfully</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Category already exists.</t>
+  </si>
+  <si>
+    <t>alert warning</t>
+  </si>
+  <si>
+    <t>warning alert</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>anjana</t>
+  </si>
+  <si>
+    <t>rgb(40, 167, 69) none repeat scroll 0% 0% / auto padding-box border-box</t>
+  </si>
+  <si>
+    <t>http://groceryapp.uniqassosiates.com/admin/list-page</t>
+  </si>
+  <si>
+    <t>�
+Alert!
+Username already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21	</t>
   </si>
 </sst>
 </file>
@@ -291,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -300,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,18 +714,195 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068057FC-71D1-49D8-BD76-B77C3B5524F1}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3267048-9A14-41EB-8D08-27A45D564C35}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E05A38F-6D40-47D5-BB6C-997DE95A8DEC}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719949D1-A2AC-48BE-B889-5E7E4CC0DB70}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3DD4C9-3CB6-4A67-AF3C-B6877FD8847B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -676,7 +914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6038E6-62BD-4B3E-9391-ADCFB9624427}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -688,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FADAB6-FE55-4FDF-9DFA-D95F8527A4B4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -702,7 +940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE95B8F-113E-4F5D-956B-21F853AB7158}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -714,12 +952,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A842C7-7B9B-49A7-804B-F4FD31F30E0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C62F5-E237-416F-B1BA-93512402F284}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E1C4A-E0AE-464E-A4B6-75C5EDD09958}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546B845-CC9C-4388-95BA-5B1F0426FD12}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945CB13-4E3C-40B3-A0FB-314DBA486B5B}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A532EDF-B178-4A78-BEF2-140498E0CB5B}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9875BD-2E61-4A41-A93F-ECA6271E897B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,39 +1221,40 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{FC4959E1-5B9D-4FD5-9E4D-2BCCA18BF8F9}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{11D0D3BF-CF59-470C-8DB8-7FA6E87EADC1}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{F4A2AB29-93F4-4D40-8DB5-EC9706E97E8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7A6850-9A60-468A-8E7F-8EA5AA73F828}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,18 +1265,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EDC402-2207-4D25-940A-1FE83EF89EB0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -806,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>20000</v>
@@ -814,7 +1296,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -824,16 +1306,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +1327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3A7227-B24A-41B0-AE8A-3FC6F3F648E5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -857,360 +1339,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068057FC-71D1-49D8-BD76-B77C3B5524F1}">
-  <dimension ref="A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E1C4A-E0AE-464E-A4B6-75C5EDD09958}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3267048-9A14-41EB-8D08-27A45D564C35}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E05A38F-6D40-47D5-BB6C-997DE95A8DEC}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546B845-CC9C-4388-95BA-5B1F0426FD12}">
-  <dimension ref="A2:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945CB13-4E3C-40B3-A0FB-314DBA486B5B}">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A532EDF-B178-4A78-BEF2-140498E0CB5B}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F983069D-9AF7-4F2C-978C-0C4138A475A0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577C5EC-5AA8-41B8-8B7F-BCB5AFAD1DA5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A842C7-7B9B-49A7-804B-F4FD31F30E0F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C62F5-E237-416F-B1BA-93512402F284}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/7martProject/target/classes/Resources/TestData.xlsx
+++ b/7martProject/target/classes/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\7martProject\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59CDBC4-854D-442A-B55A-41481EA57FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443A46D-32F7-4DFB-9CAD-80AC36E46DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="ManageOffercode" sheetId="11" r:id="rId10"/>
     <sheet name="Adminusers" sheetId="10" r:id="rId11"/>
     <sheet name="ExpenseCategory" sheetId="12" r:id="rId12"/>
-    <sheet name="Manageuser" sheetId="17" r:id="rId13"/>
-    <sheet name="Sheet8" sheetId="18" r:id="rId14"/>
-    <sheet name="Sheet9" sheetId="19" r:id="rId15"/>
-    <sheet name="Sheet10" sheetId="20" r:id="rId16"/>
-    <sheet name="Sheet11" sheetId="21" r:id="rId17"/>
-    <sheet name="Sheet5" sheetId="15" r:id="rId18"/>
-    <sheet name="Sheet6" sheetId="16" r:id="rId19"/>
+    <sheet name="ManageSlider" sheetId="22" r:id="rId13"/>
+    <sheet name="Manageuser" sheetId="17" r:id="rId14"/>
+    <sheet name="ManageLocation" sheetId="18" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="19" r:id="rId16"/>
+    <sheet name="Sheet10" sheetId="20" r:id="rId17"/>
+    <sheet name="Sheet11" sheetId="21" r:id="rId18"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId19"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>url after login</t>
   </si>
@@ -301,11 +302,71 @@
   <si>
     <t xml:space="preserve">21	</t>
   </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com</t>
+  </si>
+  <si>
+    <t>�
+Alert!
+Slider Created Successfully</t>
+  </si>
+  <si>
+    <t>Manage Location</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>selectby text country</t>
+  </si>
+  <si>
+    <t>selectby text state</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>tvm</t>
+  </si>
+  <si>
+    <t>delivery charge</t>
+  </si>
+  <si>
+    <t>edit state</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>park Street</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Location Created Successfully</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Location Updated Successfully</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -357,10 +418,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,13 +824,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -812,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E05A38F-6D40-47D5-BB6C-997DE95A8DEC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -859,7 +926,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>21</v>
       </c>
     </row>
@@ -870,6 +937,40 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8F7C1-E7EE-4675-B1BF-2D5AF8FC2401}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6B91E783-575B-40E0-A86C-F0B55E14D249}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719949D1-A2AC-48BE-B889-5E7E4CC0DB70}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -902,19 +1003,92 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3DD4C9-3CB6-4A67-AF3C-B6877FD8847B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6038E6-62BD-4B3E-9391-ADCFB9624427}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -926,7 +1100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FADAB6-FE55-4FDF-9DFA-D95F8527A4B4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -940,7 +1114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE95B8F-113E-4F5D-956B-21F853AB7158}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -952,20 +1126,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A842C7-7B9B-49A7-804B-F4FD31F30E0F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C62F5-E237-416F-B1BA-93512402F284}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1014,6 +1176,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C62F5-E237-416F-B1BA-93512402F284}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1129,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A532EDF-B178-4A78-BEF2-140498E0CB5B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,6 +1363,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1295,14 +1474,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">

--- a/7martProject/target/classes/Resources/TestData.xlsx
+++ b/7martProject/target/classes/Resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\7martProject\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443A46D-32F7-4DFB-9CAD-80AC36E46DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2714DCF-63E7-4033-8DE4-5E16CC7008B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>url after login</t>
   </si>
@@ -326,9 +326,6 @@
     <t>selectby text state</t>
   </si>
   <si>
-    <t>Belfast</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -358,6 +355,30 @@
     <t>×
 Alert!
 Location Updated Successfully</t>
+  </si>
+  <si>
+    <t>background-color</t>
+  </si>
+  <si>
+    <t>statusinactive - background</t>
+  </si>
+  <si>
+    <t>rgba(255, 193, 7, 1)</t>
+  </si>
+  <si>
+    <t>rgb(255, 193, 7)</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>searchelement</t>
+  </si>
+  <si>
+    <t>D:\\product.jpg</t>
+  </si>
+  <si>
+    <t>England</t>
   </si>
 </sst>
 </file>
@@ -367,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +408,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -420,14 +447,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,10 +810,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068057FC-71D1-49D8-BD76-B77C3B5524F1}">
-  <dimension ref="A3"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,11 +821,24 @@
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -805,10 +846,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3267048-9A14-41EB-8D08-27A45D564C35}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,13 +865,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -865,6 +906,24 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -872,6 +931,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -938,10 +998,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8F7C1-E7EE-4675-B1BF-2D5AF8FC2401}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,6 +1022,11 @@
         <v>83</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{6B91E783-575B-40E0-A86C-F0B55E14D249}"/>
@@ -972,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719949D1-A2AC-48BE-B889-5E7E4CC0DB70}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,6 +1062,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1007,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3DD4C9-3CB6-4A67-AF3C-B6877FD8847B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,35 +1100,35 @@
         <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
+      <c r="B2" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="6">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,10 +1136,10 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4">
         <v>200</v>
@@ -1074,12 +1147,12 @@
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1474,14 +1547,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
